--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7A42E-9E9F-4CCF-B50E-8CCBF9387E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723E500E-6D5A-4CEF-8AF7-A9A5CBADA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,12 +192,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2001,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2076,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>23</v>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723E500E-6D5A-4CEF-8AF7-A9A5CBADA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D721E-E63C-424A-90FB-85B79CE4B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>81000003,81000010</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>属性展示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>FreeResetTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000003,81000013</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2025,22 +2025,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2054,16 +2054,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,13 +2080,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2097,10 +2097,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
@@ -2120,10 +2120,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
@@ -2143,10 +2143,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="8">
         <v>2</v>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75C33D-9D2F-4D89-8205-39AB53796528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123FC3C9-6A56-4F60-A758-ACE88804F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleSummonProto" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>士兵人口数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterNumber</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -143,6 +139,18 @@
   </si>
   <si>
     <t>81000003,81000013</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenKouNumber</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1340,9 +1348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1988,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H30"/>
+  <dimension ref="C1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1999,12 +2004,12 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="8" width="21.5" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2015,16 +2020,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2035,16 +2043,19 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2055,16 +2066,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2072,19 +2086,22 @@
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>10000</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="7">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2092,19 +2109,22 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
         <v>20000</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="7">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2112,193 +2132,218 @@
         <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
         <v>30000</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6EAEDE-37A3-4B20-A75F-1635CA8B4EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75C33D-9D2F-4D89-8205-39AB53796528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,7 +1318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1340,6 +1340,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1988,7 +1991,7 @@
   <dimension ref="C1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2074,11 +2077,11 @@
       <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="8">
-        <v>100</v>
-      </c>
-      <c r="H6" s="8">
-        <v>60</v>
+      <c r="G6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="9">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,11 +2097,11 @@
       <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
-        <v>200</v>
-      </c>
-      <c r="H7" s="8">
-        <v>120</v>
+      <c r="G7" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,11 +2117,11 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
-        <v>300</v>
-      </c>
-      <c r="H8" s="8">
-        <v>300</v>
+      <c r="G8" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D721E-E63C-424A-90FB-85B79CE4B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6EAEDE-37A3-4B20-A75F-1635CA8B4EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleSummonProto" sheetId="1" r:id="rId1"/>
@@ -53,15 +53,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{8B60318D-C314-4C42-8D88-314E8E582F52}">
-      <text/>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -110,21 +107,6 @@
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性展示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttributesKey</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;50@100603;10</t>
-  </si>
-  <si>
-    <t>100203;50@100603;10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2003,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I30"/>
+  <dimension ref="C1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2014,36 +1996,32 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="9" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2054,19 +2032,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2077,19 +2052,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2097,22 +2069,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
       </c>
       <c r="G6" s="8">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H6" s="8">
-        <v>100</v>
-      </c>
-      <c r="I6" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2120,22 +2089,19 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
       </c>
       <c r="G7" s="8">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="H7" s="8">
-        <v>200</v>
-      </c>
-      <c r="I7" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2143,218 +2109,193 @@
         <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="H8" s="8">
         <v>300</v>
       </c>
-      <c r="I8" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726BCDF-67CD-433D-9DAA-02A9EB785040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0DA88-8D43-4972-945E-AEEB890071FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleSummonProto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{FAA19F49-198C-4871-BB92-9527508A113E}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{FAA19F49-198C-4871-BB92-9527508A113E}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>2000004</t>
+  </si>
+  <si>
+    <t>战场ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2036,23 +2044,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I39"/>
+  <dimension ref="C1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="9" width="21.5" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2060,22 +2068,25 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2083,22 +2094,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2106,10 +2120,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -2120,192 +2134,219 @@
       <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8">
+        <v>3000001</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
         <v>10000</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8">
+        <v>3000001</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>6</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>50000</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8">
+        <v>3000001</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>300000</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8">
+        <v>3000001</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>10</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>500000</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8">
+        <v>3000002</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
         <v>10000</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8">
+        <v>3000002</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>50000</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8">
+        <v>3000002</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>5</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>300000</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8">
+        <v>3000002</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>10</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>500000</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2313,8 +2354,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2322,8 +2364,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2331,8 +2374,9 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2340,8 +2384,9 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2349,8 +2394,9 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2358,8 +2404,9 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2367,8 +2414,9 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2376,8 +2424,9 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2385,8 +2434,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2394,8 +2444,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2403,8 +2454,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2412,8 +2464,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2421,8 +2474,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2430,8 +2484,9 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2439,8 +2494,9 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2448,10 +2504,11 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A33CB-7B0C-4323-B7CC-E8AEF338398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726BCDF-67CD-433D-9DAA-02A9EB785040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -134,14 +134,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>81000051,82000051</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>81000052,82000052</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1000003</t>
   </si>
   <si>
@@ -162,8 +154,38 @@
     <t>招募双头恶龙</t>
   </si>
   <si>
-    <t>81000053,82000053</t>
+    <t>81000053,81000063</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000052,81000062</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000051,81000061</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>82000051,82000061</t>
+  </si>
+  <si>
+    <t>82000052,82000062</t>
+  </si>
+  <si>
+    <t>82000053,82000063</t>
+  </si>
+  <si>
+    <t>2000001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000002</t>
+  </si>
+  <si>
+    <t>2000003</t>
+  </si>
+  <si>
+    <t>2000004</t>
   </si>
 </sst>
 </file>
@@ -2014,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I40"/>
+  <dimension ref="C1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2104,10 +2126,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -2127,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7" s="9">
         <v>6</v>
@@ -2147,13 +2169,13 @@
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
@@ -2170,13 +2192,13 @@
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
@@ -2191,41 +2213,97 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>50000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>300000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>500000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1200</v>
+      </c>
     </row>
     <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
@@ -2363,23 +2441,15 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2389,7 +2459,6 @@
     <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123FC3C9-6A56-4F60-A758-ACE88804F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A33CB-7B0C-4323-B7CC-E8AEF338398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleSummonProto" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -74,26 +74,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1000003</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>战场初级士兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场中级士兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场高级士兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemName</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -138,10 +122,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>81000003,81000013</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>人口数量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -151,6 +131,38 @@
   </si>
   <si>
     <t>RenKouNumber</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000051,82000051</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000052,82000052</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>1000004</t>
+  </si>
+  <si>
+    <t>招募士兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募一批士兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募大力士</t>
+  </si>
+  <si>
+    <t>招募双头恶龙</t>
+  </si>
+  <si>
+    <t>81000053,82000053</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,13 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -233,6 +238,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1326,7 +1344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1344,10 +1362,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1993,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I30"/>
+  <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2014,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2060,103 +2081,117 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>50000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="H8" s="8">
+        <v>300000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>20000</v>
-      </c>
-      <c r="I7" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>30000</v>
-      </c>
-      <c r="I8" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>500000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2165,7 +2200,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2174,7 +2209,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2183,7 +2218,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2192,7 +2227,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2201,7 +2236,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2210,7 +2245,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2219,7 +2254,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2228,7 +2263,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2237,7 +2272,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2246,7 +2281,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2255,7 +2290,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2264,7 +2299,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2273,7 +2308,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2282,7 +2317,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2291,7 +2326,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2300,7 +2335,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2309,7 +2344,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2318,7 +2353,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2327,7 +2362,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2336,7 +2371,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2345,6 +2380,16 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BattleSummonConfig.xlsx
+++ b/Excel/BattleSummonConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0DA88-8D43-4972-945E-AEEB890071FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591B8F2-C43A-4EBE-9518-48B75CAB39F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleSummonProto" sheetId="1" r:id="rId1"/>
@@ -2047,7 +2047,7 @@
   <dimension ref="C1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2161,7 +2161,7 @@
         <v>10000</v>
       </c>
       <c r="J6" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <v>50000</v>
       </c>
       <c r="J7" s="8">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,7 +2213,7 @@
         <v>300000</v>
       </c>
       <c r="J8" s="8">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>500000</v>
       </c>
       <c r="J9" s="8">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>10000</v>
       </c>
       <c r="J10" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,7 +2291,7 @@
         <v>50000</v>
       </c>
       <c r="J11" s="8">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2317,7 +2317,7 @@
         <v>300000</v>
       </c>
       <c r="J12" s="8">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2343,7 +2343,7 @@
         <v>500000</v>
       </c>
       <c r="J13" s="8">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
